--- a/test_psd.xlsx
+++ b/test_psd.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="3_53_plot" sheetId="1" r:id="rId1"/>
     <sheet name="3_53" sheetId="2" r:id="rId2"/>
-    <sheet name="3_14" sheetId="3" r:id="rId3"/>
+    <sheet name="3_14_N2" sheetId="3" r:id="rId3"/>
+    <sheet name="3_14_Ar" sheetId="4" r:id="rId4"/>
+    <sheet name="1_223_kerogen_N2" sheetId="5" r:id="rId5"/>
+    <sheet name="1_223_kerogen_Ar" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Pore Diameter Range (Å)</t>
   </si>
@@ -349,11 +352,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="510549848"/>
-        <c:axId val="510550240"/>
+        <c:axId val="513652992"/>
+        <c:axId val="513653384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="510549848"/>
+        <c:axId val="513652992"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -411,12 +414,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510550240"/>
+        <c:crossAx val="513653384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="510550240"/>
+        <c:axId val="513653384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,7 +476,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="510549848"/>
+        <c:crossAx val="513652992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1800,8 +1803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1961,4 +1964,809 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2526.1127212088631</v>
+      </c>
+      <c r="B2">
+        <v>2.248987212767856E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1736.684961001795</v>
+      </c>
+      <c r="B3">
+        <v>2.4369528089523588E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1113.664757437163</v>
+      </c>
+      <c r="B4">
+        <v>2.8217193600854767E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>776.84788690406492</v>
+      </c>
+      <c r="B5">
+        <v>1.8655220382101712E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>577.74235763144191</v>
+      </c>
+      <c r="B6">
+        <v>1.4880110188305715E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>451.37501745590112</v>
+      </c>
+      <c r="B7">
+        <v>1.137179802270074E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>328.43084728994631</v>
+      </c>
+      <c r="B8">
+        <v>1.5556032565181004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>246.76871562327369</v>
+      </c>
+      <c r="B9">
+        <v>1.0810974079368128E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>196.42785986524063</v>
+      </c>
+      <c r="B10">
+        <v>8.3128284938789303E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>163.29400530057268</v>
+      </c>
+      <c r="B11">
+        <v>6.3505635124616556E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>138.99052711583241</v>
+      </c>
+      <c r="B12">
+        <v>5.4950298405270666E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>120.78113962659299</v>
+      </c>
+      <c r="B13">
+        <v>4.5992471303288917E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>99.836404890283575</v>
+      </c>
+      <c r="B14">
+        <v>6.7076829289783946E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>81.835127138862418</v>
+      </c>
+      <c r="B15">
+        <v>5.0701804347551924E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>69.046853031696685</v>
+      </c>
+      <c r="B16">
+        <v>4.1692908299011382E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>59.381538225515435</v>
+      </c>
+      <c r="B17">
+        <v>3.5422541980601741E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>51.740425820280016</v>
+      </c>
+      <c r="B18">
+        <v>3.0014598003719642E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>45.516978062998383</v>
+      </c>
+      <c r="B19">
+        <v>2.6759384224303616E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>40.352748402259714</v>
+      </c>
+      <c r="B20">
+        <v>2.4122568929177894E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>35.996420638346237</v>
+      </c>
+      <c r="B21">
+        <v>2.3968028744053606E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>32.228951499691561</v>
+      </c>
+      <c r="B22">
+        <v>2.1626510566854443E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>28.81486187018913</v>
+      </c>
+      <c r="B23">
+        <v>2.2844694920196324E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25.730783184562011</v>
+      </c>
+      <c r="B24">
+        <v>2.2205885899849024E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22.893579080704612</v>
+      </c>
+      <c r="B25">
+        <v>2.147992385151112E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>20.212302104662434</v>
+      </c>
+      <c r="B26">
+        <v>2.5232743643620998E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2522.6986019665942</v>
+      </c>
+      <c r="B2">
+        <v>1.2982483065113449E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1819.3653643428077</v>
+      </c>
+      <c r="B3">
+        <v>8.4082202822941057E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1093.7207752333341</v>
+      </c>
+      <c r="B4">
+        <v>8.4562256166683364E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>816.8448309357251</v>
+      </c>
+      <c r="B5">
+        <v>3.0244054381522407E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>238.35465918336786</v>
+      </c>
+      <c r="B6">
+        <v>0.15655967737395926</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>196.46497313182095</v>
+      </c>
+      <c r="B7">
+        <v>6.7456155534584708E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>182.22501431672362</v>
+      </c>
+      <c r="B8">
+        <v>5.9840523354105085E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>169.33633364128332</v>
+      </c>
+      <c r="B9">
+        <v>5.3524022497884755E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>158.15074059204255</v>
+      </c>
+      <c r="B10">
+        <v>5.3768722724629086E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>148.36049511470196</v>
+      </c>
+      <c r="B11">
+        <v>4.9181297752207073E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>139.25174603774286</v>
+      </c>
+      <c r="B12">
+        <v>4.2998303256459999E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>130.39320225088008</v>
+      </c>
+      <c r="B13">
+        <v>4.3574265827719359E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>122.50261452783785</v>
+      </c>
+      <c r="B14">
+        <v>3.8109283093383829E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>115.76441637384316</v>
+      </c>
+      <c r="B15">
+        <v>3.9495178600387178E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>109.55153675205362</v>
+      </c>
+      <c r="B16">
+        <v>3.4389737096424226E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>103.85320460819905</v>
+      </c>
+      <c r="B17">
+        <v>3.5517506008682139E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>98.531459223327531</v>
+      </c>
+      <c r="B18">
+        <v>2.8762871945155594E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>93.56770891810315</v>
+      </c>
+      <c r="B19">
+        <v>3.0440630420086748E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>89.068978048778504</v>
+      </c>
+      <c r="B20">
+        <v>2.8694208719804125E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>84.927713001740685</v>
+      </c>
+      <c r="B21">
+        <v>2.8236033428654457E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>81.041101044566872</v>
+      </c>
+      <c r="B22">
+        <v>2.7255784731393729E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>77.36307713796846</v>
+      </c>
+      <c r="B23">
+        <v>2.1923485838683614E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>73.93827961554679</v>
+      </c>
+      <c r="B24">
+        <v>2.075961024126838E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>70.628498942275982</v>
+      </c>
+      <c r="B25">
+        <v>2.3471484133108554E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>67.420994584158151</v>
+      </c>
+      <c r="B26">
+        <v>2.0486634369024669E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>64.398207018287422</v>
+      </c>
+      <c r="B27">
+        <v>1.9931035791974127E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>61.672616933136204</v>
+      </c>
+      <c r="B28">
+        <v>2.1197769239574451E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>59.115343085250039</v>
+      </c>
+      <c r="B29">
+        <v>2.0160347501587796E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>56.708636658171834</v>
+      </c>
+      <c r="B30">
+        <v>1.8912198159500889E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>54.462479222632375</v>
+      </c>
+      <c r="B31">
+        <v>1.9085335344718871E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>52.288087554525781</v>
+      </c>
+      <c r="B32">
+        <v>1.7973681202013078E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>50.245756915724122</v>
+      </c>
+      <c r="B33">
+        <v>1.7078139876405825E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>45.569630404997604</v>
+      </c>
+      <c r="B34">
+        <v>4.4245882830829921E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>39.840598529263879</v>
+      </c>
+      <c r="B35">
+        <v>4.08348954030055E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35.108574573019943</v>
+      </c>
+      <c r="B36">
+        <v>3.3054588816452644E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>31.063274620405899</v>
+      </c>
+      <c r="B37">
+        <v>3.0387253466121213E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>27.596139215799056</v>
+      </c>
+      <c r="B38">
+        <v>2.7200859448235446E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>24.461259512273841</v>
+      </c>
+      <c r="B39">
+        <v>2.9558925936602064E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>21.526187504475047</v>
+      </c>
+      <c r="B40">
+        <v>3.1887114289225792E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>18.884628381438144</v>
+      </c>
+      <c r="B41">
+        <v>2.6478492972980415E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>17.283311554507677</v>
+      </c>
+      <c r="B42">
+        <v>1.4691730063481556E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2546.3780987380183</v>
+      </c>
+      <c r="B2">
+        <v>2.3514104997692166E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2148.8454639800379</v>
+      </c>
+      <c r="B3">
+        <v>2.3889537108014877E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1547.9669862561786</v>
+      </c>
+      <c r="B4">
+        <v>5.311778713870377E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>991.11292174657683</v>
+      </c>
+      <c r="B5">
+        <v>6.018146766059046E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>722.32</v>
+      </c>
+      <c r="B6">
+        <v>3.2699219670457823E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>569.5442221574051</v>
+      </c>
+      <c r="B7">
+        <v>2.8323442779093332E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>463.78135802977192</v>
+      </c>
+      <c r="B8">
+        <v>2.1911648301101209E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>323.96873387653483</v>
+      </c>
+      <c r="B9">
+        <v>4.4596808674386472E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>240.74462929968516</v>
+      </c>
+      <c r="B10">
+        <v>2.4531055901001523E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>193.19157974600617</v>
+      </c>
+      <c r="B11">
+        <v>1.8552544802818552E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>161.43447788306068</v>
+      </c>
+      <c r="B12">
+        <v>1.4360692859056581E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>138.06087926736436</v>
+      </c>
+      <c r="B13">
+        <v>1.2149941074725187E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>119.66974559385622</v>
+      </c>
+      <c r="B14">
+        <v>1.0209658072152057E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>98.893108389781588</v>
+      </c>
+      <c r="B15">
+        <v>1.4959830777574228E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>81.290143928126156</v>
+      </c>
+      <c r="B16">
+        <v>1.1374296515418734E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>68.681444654955286</v>
+      </c>
+      <c r="B17">
+        <v>9.1219505445371881E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>59.152364069403546</v>
+      </c>
+      <c r="B18">
+        <v>7.436682736656295E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>51.582718869364172</v>
+      </c>
+      <c r="B19">
+        <v>6.8615094496146381E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>45.418234690783805</v>
+      </c>
+      <c r="B20">
+        <v>5.9148325627828378E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>40.319771141873289</v>
+      </c>
+      <c r="B21">
+        <v>5.4687141862738396E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>35.937134694405081</v>
+      </c>
+      <c r="B22">
+        <v>5.2245541073886285E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>32.21175362046661</v>
+      </c>
+      <c r="B23">
+        <v>4.8941050703838031E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>28.822655254359148</v>
+      </c>
+      <c r="B24">
+        <v>5.3232805694557643E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25.699190706885197</v>
+      </c>
+      <c r="B25">
+        <v>5.6101765541920435E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>22.872788963220255</v>
+      </c>
+      <c r="B26">
+        <v>5.6522394732331496E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>20.158758779355104</v>
+      </c>
+      <c r="B27">
+        <v>6.4831588583638411E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_psd.xlsx
+++ b/test_psd.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="3_53_plot" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="3_14_Ar" sheetId="4" r:id="rId4"/>
     <sheet name="1_223_kerogen_N2" sheetId="5" r:id="rId5"/>
     <sheet name="1_223_kerogen_Ar" sheetId="6" r:id="rId6"/>
+    <sheet name="3_14_450_Ar" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
   <si>
     <t>Pore Diameter Range (Å)</t>
   </si>
@@ -352,11 +353,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="513652992"/>
-        <c:axId val="513653384"/>
+        <c:axId val="593138872"/>
+        <c:axId val="598843560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="513652992"/>
+        <c:axId val="593138872"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -414,12 +415,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513653384"/>
+        <c:crossAx val="598843560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="513653384"/>
+        <c:axId val="598843560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -476,7 +477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="513652992"/>
+        <c:crossAx val="593138872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2544,8 +2545,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2769,4 +2770,219 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2133.9916383758259</v>
+      </c>
+      <c r="B2">
+        <v>2.2845128808484248E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1181.0016265555398</v>
+      </c>
+      <c r="B3">
+        <v>2.7517801311748766E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>780.61579044458404</v>
+      </c>
+      <c r="B4">
+        <v>2.3541772512282923E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>580.4479789337114</v>
+      </c>
+      <c r="B5">
+        <v>1.9780448284241153E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>445.76701645340961</v>
+      </c>
+      <c r="B6">
+        <v>1.927551793405225E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>321.54926017044818</v>
+      </c>
+      <c r="B7">
+        <v>2.6110728485914747E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>242.89081324271228</v>
+      </c>
+      <c r="B8">
+        <v>1.8038589065174936E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>195.25076419473126</v>
+      </c>
+      <c r="B9">
+        <v>1.2904257519721143E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>162.87504777718314</v>
+      </c>
+      <c r="B10">
+        <v>1.0117625522602762E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>139.08521752902999</v>
+      </c>
+      <c r="B11">
+        <v>8.0333087165274011E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>120.1420757059317</v>
+      </c>
+      <c r="B12">
+        <v>7.0677181303310593E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>99.336196648401042</v>
+      </c>
+      <c r="B13">
+        <v>9.2393838761576838E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>81.754733007682276</v>
+      </c>
+      <c r="B14">
+        <v>6.8950887731618891E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>68.889575077717964</v>
+      </c>
+      <c r="B15">
+        <v>5.5439020060542136E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>59.325570295271909</v>
+      </c>
+      <c r="B16">
+        <v>4.3623419423139944E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>51.712559920044427</v>
+      </c>
+      <c r="B17">
+        <v>3.8497217243502625E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>45.516364904155566</v>
+      </c>
+      <c r="B18">
+        <v>3.5782962958047016E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>40.370292561963538</v>
+      </c>
+      <c r="B19">
+        <v>3.0510473397502138E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>35.952228307747731</v>
+      </c>
+      <c r="B20">
+        <v>2.8389573724168002E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>32.234407996123785</v>
+      </c>
+      <c r="B21">
+        <v>2.7038883897896295E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>28.88643823479584</v>
+      </c>
+      <c r="B22">
+        <v>2.5414631499912375E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>25.770910111644504</v>
+      </c>
+      <c r="B23">
+        <v>2.762469059093283E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22.917952977205569</v>
+      </c>
+      <c r="B24">
+        <v>2.7578813920966637E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20.216968547087788</v>
+      </c>
+      <c r="B25">
+        <v>3.1902477024291762E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_psd.xlsx
+++ b/test_psd.xlsx
@@ -4,23 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="3_53_plot" sheetId="1" r:id="rId1"/>
     <sheet name="3_53" sheetId="2" r:id="rId2"/>
-    <sheet name="3_14_N2" sheetId="3" r:id="rId3"/>
+    <sheet name="3_14_F1_N2" sheetId="3" r:id="rId3"/>
     <sheet name="3_14_Ar" sheetId="4" r:id="rId4"/>
     <sheet name="1_223_kerogen_N2" sheetId="5" r:id="rId5"/>
     <sheet name="1_223_kerogen_Ar" sheetId="6" r:id="rId6"/>
-    <sheet name="3_14_450_Ar" sheetId="7" r:id="rId7"/>
+    <sheet name="3_14_110_N2" sheetId="9" r:id="rId7"/>
+    <sheet name="3_14_450_Ar" sheetId="7" r:id="rId8"/>
+    <sheet name="3_14_110_Ar" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Pore Diameter Range (Å)</t>
   </si>
@@ -353,11 +355,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="593138872"/>
-        <c:axId val="598843560"/>
+        <c:axId val="546521800"/>
+        <c:axId val="546522192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="593138872"/>
+        <c:axId val="546521800"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -415,12 +417,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="598843560"/>
+        <c:crossAx val="546522192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="598843560"/>
+        <c:axId val="546522192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +479,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="593138872"/>
+        <c:crossAx val="546521800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1804,8 +1806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2774,10 +2776,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2792,6 +2794,157 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>2091.4927151589281</v>
+      </c>
+      <c r="B2">
+        <v>1.5809991099232032E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1096.4430505632081</v>
+      </c>
+      <c r="B3">
+        <v>3.2125560364797564E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>806.64840378307383</v>
+      </c>
+      <c r="B4">
+        <v>1.2517097553828291E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>266.75399885802983</v>
+      </c>
+      <c r="B5">
+        <v>7.9672492874440885E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>149.59291290876288</v>
+      </c>
+      <c r="B6">
+        <v>3.0487458540804364E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>88.251267479305</v>
+      </c>
+      <c r="B7">
+        <v>2.0139689964573933E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>56.626888990696308</v>
+      </c>
+      <c r="B8">
+        <v>1.094123178735781E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>45.542686358273521</v>
+      </c>
+      <c r="B9">
+        <v>2.9889422243410804E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>39.831235657257075</v>
+      </c>
+      <c r="B10">
+        <v>2.6305445870774397E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>35.078196682157149</v>
+      </c>
+      <c r="B11">
+        <v>2.3743985443474224E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>31.012774527830352</v>
+      </c>
+      <c r="B12">
+        <v>2.2244528311389852E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>27.53</v>
+      </c>
+      <c r="B13">
+        <v>2.2247803573193593E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>24.410190587412941</v>
+      </c>
+      <c r="B14">
+        <v>1.9764851830708074E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>21.497881769008643</v>
+      </c>
+      <c r="B15">
+        <v>1.8873492030318018E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>18.864119101504226</v>
+      </c>
+      <c r="B16">
+        <v>1.6227035092006593E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>17.269843596040623</v>
+      </c>
+      <c r="B17">
+        <v>9.8786549642682076E-5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>2133.9916383758259</v>
       </c>
       <c r="B2">
@@ -2980,6 +3133,221 @@
       </c>
       <c r="B25">
         <v>3.1902477024291762E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2110.975233479191</v>
+      </c>
+      <c r="B2">
+        <v>2.1382814844072961E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1164.4690165274551</v>
+      </c>
+      <c r="B3">
+        <v>2.6220451164168652E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>784.37207566293853</v>
+      </c>
+      <c r="B4">
+        <v>1.9854305651401654E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>580.19140246471295</v>
+      </c>
+      <c r="B5">
+        <v>1.7169336792325299E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>448.08622636902987</v>
+      </c>
+      <c r="B6">
+        <v>1.6047328898330529E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>323.61611862540184</v>
+      </c>
+      <c r="B7">
+        <v>2.2849319785831451E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>243.65390279213835</v>
+      </c>
+      <c r="B8">
+        <v>1.6211154981342409E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>195.23104449197479</v>
+      </c>
+      <c r="B9">
+        <v>1.1821887026503039E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>162.8567869528604</v>
+      </c>
+      <c r="B10">
+        <v>9.1553445937164941E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>138.82011882396176</v>
+      </c>
+      <c r="B11">
+        <v>7.760819662549868E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>120.41736555052174</v>
+      </c>
+      <c r="B12">
+        <v>6.4592566697869796E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>99.596686974767351</v>
+      </c>
+      <c r="B13">
+        <v>9.2994091131798275E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>81.85204392527595</v>
+      </c>
+      <c r="B14">
+        <v>6.9967730583376218E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>68.941456414918363</v>
+      </c>
+      <c r="B15">
+        <v>5.6127201865386039E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>59.303352066429703</v>
+      </c>
+      <c r="B16">
+        <v>4.5670908128099617E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>51.69650656151979</v>
+      </c>
+      <c r="B17">
+        <v>4.0671761121763869E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>45.489667073374228</v>
+      </c>
+      <c r="B18">
+        <v>3.682772155256354E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>40.353206875642712</v>
+      </c>
+      <c r="B19">
+        <v>3.3557151905655143E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>35.997129337759105</v>
+      </c>
+      <c r="B20">
+        <v>3.056562441677951E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>32.160110436037016</v>
+      </c>
+      <c r="B21">
+        <v>2.8620023926838361E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>28.786472489788892</v>
+      </c>
+      <c r="B22">
+        <v>2.8928069017240902E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>25.716407119822634</v>
+      </c>
+      <c r="B23">
+        <v>2.8491739285358661E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22.903318219587781</v>
+      </c>
+      <c r="B24">
+        <v>2.7460369292425964E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>20.213349017461297</v>
+      </c>
+      <c r="B25">
+        <v>3.3265741940251872E-4</v>
       </c>
     </row>
   </sheetData>
